--- a/module6/sprint-2/create_details_design/5.10. auto-send-mail-and-pay-paypal-momo.xlsx
+++ b/module6/sprint-2/create_details_design/5.10. auto-send-mail-and-pay-paypal-momo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project-2\create_details_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C65A03-5CFA-47CC-8954-F6B1956FAE13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2DD89C-E457-43CF-A4F8-CAE73F19736A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34CE608B-9A7A-40F8-9B9F-4B0D3AC4459E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>ENDIF</t>
   </si>
@@ -143,13 +143,16 @@
   </si>
   <si>
     <t>increase the corresponding term of each memberCard paid</t>
+  </si>
+  <si>
+    <t>THEN catch error and get message</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,13 +195,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -213,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -230,14 +246,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -261,22 +287,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>240030</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>192405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E546E929-145A-4B0B-A62B-B9DF5178CD87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29BDC531-432D-4BD6-BC46-38D821ED8E17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -298,7 +324,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="617220" y="678180"/>
+          <a:off x="609600" y="670560"/>
           <a:ext cx="7562850" cy="5153025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -311,22 +337,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>360045</xdr:colOff>
+      <xdr:colOff>316230</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>13335</xdr:rowOff>
+      <xdr:rowOff>5715</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F44317-8A9A-41B4-9D8A-41A38E037B01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F787C2C5-BB32-4169-ABAD-B712F54B12BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -348,8 +374,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="624840" y="6766560"/>
-          <a:ext cx="7667625" cy="3343275"/>
+          <a:off x="609600" y="6758940"/>
+          <a:ext cx="7639050" cy="3343275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -366,22 +392,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7470</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>264459</xdr:colOff>
+      <xdr:colOff>256989</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>160162</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ECE52F5-18FB-4127-AF2F-543DF3ABD4D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73DEAEB3-FD4C-4DA7-82C9-6AB1708CEA80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -403,7 +429,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1845235" y="1001059"/>
+          <a:off x="1837765" y="1001059"/>
           <a:ext cx="10058400" cy="5001103"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -716,7 +742,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,7 +795,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,10 +838,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533DCE79-0BF4-4AF6-B619-EF5DB367596E}">
-  <dimension ref="B2:Q70"/>
+  <dimension ref="B2:Q76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -829,37 +855,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:17" x14ac:dyDescent="0.35">
@@ -885,41 +911,41 @@
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.35">
       <c r="D14" s="9"/>
@@ -961,16 +987,16 @@
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -986,226 +1012,273 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="D20" s="12" t="s">
+    <row r="19" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="17"/>
+      <c r="E20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="D21" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="D23" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="C22" s="12" t="s">
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C25" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="25" spans="2:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="B25" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="C28" s="6" t="s">
+      <c r="H25" s="11"/>
+    </row>
+    <row r="28" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="B28" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C31" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="C29" s="6" t="s">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C32" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="C31" s="3" t="s">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C34" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D33" s="11" t="s">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D36" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="4:12" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D35" s="3" t="s">
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="3:12" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D38" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D36" s="3" t="s">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D39" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D37" s="3" t="s">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D40" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D38" s="3" t="s">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D41" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D40" s="12" t="s">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D43" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-    </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D41" s="7"/>
-      <c r="E41" s="7" t="s">
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-    </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D42" s="3" t="s">
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D45" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D43" s="3" t="s">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D46" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="E44" s="3" t="s">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E47" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D45" s="3" t="s">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D48" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D46" s="3" t="s">
+    <row r="49" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D49" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D48" s="3" t="s">
+    <row r="51" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D51" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C50" s="3" t="s">
+    <row r="53" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C53" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C53" s="6" t="s">
+    <row r="56" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C56" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C54" s="6" t="s">
+    <row r="57" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C57" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C56" s="3" t="s">
+    <row r="59" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C59" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D58" s="11" t="s">
+    <row r="61" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D61" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-    </row>
-    <row r="59" spans="3:10" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D60" s="3" t="s">
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+    </row>
+    <row r="62" spans="3:10" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D63" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D61" s="3" t="s">
+    <row r="64" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D64" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D62" s="3" t="s">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D65" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="E63" s="3" t="s">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="E66" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="F64" s="3" t="s">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F67" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="3:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G65" s="8" t="s">
+    <row r="68" spans="3:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G68" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="D66" s="3" t="s">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D69" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="D68" s="3" t="s">
+    <row r="70" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D70" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+    </row>
+    <row r="71" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D71" s="17"/>
+      <c r="E71" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" s="17"/>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D72" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D74" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C70" s="3" t="s">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C76" s="3" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="D61:J61"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D43:L43"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="D17:K17"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="D11:L11"/>
     <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="D58:J58"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D40:L40"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="D17:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
